--- a/决策树（完成）/dataset.xlsx
+++ b/决策树（完成）/dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9555"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1016,13 +1016,13 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="10.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1361,7 +1361,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1378,7 +1378,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
